--- a/data/mistakes/stanza_lemma_mistakes.xlsx
+++ b/data/mistakes/stanza_lemma_mistakes.xlsx
@@ -4896,7 +4896,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Treterówną</t>
+          <t>Treterówna</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
